--- a/data/multiple_datasheets_categories.xlsx
+++ b/data/multiple_datasheets_categories.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgenstensrud/Documents/tags_creator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5141B9-DA81-4A49-9DE6-1CAEA765CAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104E86E-34E4-5F42-B67E-E4FA4BC064E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="22340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="31320" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$136</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="889">
   <si>
     <t>url</t>
   </si>
@@ -13798,10 +13798,14 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14105,26 +14109,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="49.1640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="138.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="215.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" style="2"/>
+    <col min="4" max="4" width="68" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="49.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14135,31 +14135,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -14170,31 +14173,34 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="b">
+      <c r="L2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -14205,31 +14211,34 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="b">
+      <c r="L3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -14240,31 +14249,34 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="2" t="b">
+      <c r="L4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -14275,31 +14287,34 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="K5" s="2" t="b">
+      <c r="L5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -14310,31 +14325,34 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="K6" s="2" t="b">
+      <c r="L6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -14345,31 +14363,34 @@
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="2" t="b">
+      <c r="L7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -14380,31 +14401,34 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="2" t="b">
+      <c r="L8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -14415,31 +14439,34 @@
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="2" t="b">
+      <c r="L9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -14450,31 +14477,34 @@
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K10" s="2" t="b">
+      <c r="L10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -14485,31 +14515,34 @@
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K11" s="2" t="b">
+      <c r="L11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -14520,31 +14553,34 @@
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="K12" s="2" t="b">
+      <c r="L12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -14555,31 +14591,34 @@
         <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="2" t="b">
+      <c r="L13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -14590,31 +14629,34 @@
         <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="2" t="b">
+      <c r="L14" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -14625,31 +14667,34 @@
         <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="2" t="b">
+      <c r="L15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -14660,31 +14705,34 @@
         <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="2" t="b">
+      <c r="L16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
@@ -14695,31 +14743,34 @@
         <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="2" t="b">
+      <c r="L17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -14730,31 +14781,34 @@
         <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="2" t="b">
+      <c r="L18" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
@@ -14765,31 +14819,34 @@
         <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K19" s="2" t="b">
+      <c r="L19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>88</v>
       </c>
@@ -14800,31 +14857,34 @@
         <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K20" s="2" t="b">
+      <c r="L20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -14835,31 +14895,34 @@
         <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="K21" s="2" t="b">
+      <c r="L21" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -14870,31 +14933,34 @@
         <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="K22" s="2" t="b">
+      <c r="L22" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>97</v>
       </c>
@@ -14905,31 +14971,34 @@
         <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="2" t="b">
+      <c r="L23" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>97</v>
       </c>
@@ -14940,31 +15009,34 @@
         <v>98</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K24" s="2" t="b">
+      <c r="L24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
@@ -14975,31 +15047,34 @@
         <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K25" s="2" t="b">
+      <c r="L25" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
@@ -15010,31 +15085,34 @@
         <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="K26" s="2" t="b">
+      <c r="L26" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>105</v>
       </c>
@@ -15045,31 +15123,34 @@
         <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K27" s="2" t="b">
+      <c r="L27" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
@@ -15080,31 +15161,34 @@
         <v>106</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="2" t="b">
+      <c r="L28" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>105</v>
       </c>
@@ -15115,31 +15199,34 @@
         <v>106</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="K29" s="2" t="b">
+      <c r="L29" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -15150,31 +15237,34 @@
         <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="K30" s="2" t="b">
+      <c r="L30" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>113</v>
       </c>
@@ -15185,31 +15275,34 @@
         <v>114</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="2" t="b">
+      <c r="L31" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>113</v>
       </c>
@@ -15220,31 +15313,34 @@
         <v>114</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K32" s="2" t="b">
+      <c r="L32" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>113</v>
       </c>
@@ -15255,31 +15351,34 @@
         <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="K33" s="2" t="b">
+      <c r="L33" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -15290,31 +15389,34 @@
         <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="K34" s="2" t="b">
+      <c r="L34" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>121</v>
       </c>
@@ -15325,31 +15427,34 @@
         <v>122</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="2" t="b">
+      <c r="L35" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>121</v>
       </c>
@@ -15360,31 +15465,34 @@
         <v>122</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K36" s="2" t="b">
+      <c r="L36" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>137</v>
       </c>
@@ -15395,31 +15503,34 @@
         <v>138</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K37" s="2" t="b">
+      <c r="L37" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>137</v>
       </c>
@@ -15430,31 +15541,34 @@
         <v>138</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K38" s="2" t="b">
+      <c r="L38" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>137</v>
       </c>
@@ -15465,31 +15579,34 @@
         <v>138</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="K39" s="2" t="b">
+      <c r="L39" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>129</v>
       </c>
@@ -15500,31 +15617,34 @@
         <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K40" s="2" t="b">
+      <c r="L40" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>129</v>
       </c>
@@ -15535,31 +15655,34 @@
         <v>130</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="K41" s="2" t="b">
+      <c r="L41" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>129</v>
       </c>
@@ -15570,31 +15693,34 @@
         <v>130</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="K42" s="2" t="b">
+      <c r="L42" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>129</v>
       </c>
@@ -15605,31 +15731,34 @@
         <v>130</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="K43" s="2" t="b">
+      <c r="L43" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
@@ -15640,31 +15769,34 @@
         <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="K44" s="2" t="b">
+      <c r="L44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -15675,31 +15807,34 @@
         <v>130</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="K45" s="2" t="b">
+      <c r="L45" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -15710,31 +15845,34 @@
         <v>130</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="K46" s="2" t="b">
+      <c r="L46" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>129</v>
       </c>
@@ -15745,31 +15883,34 @@
         <v>130</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="K47" s="2" t="b">
+      <c r="L47" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>129</v>
       </c>
@@ -15780,31 +15921,34 @@
         <v>130</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="K48" s="2" t="b">
+      <c r="L48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>129</v>
       </c>
@@ -15815,31 +15959,34 @@
         <v>130</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="K49" s="2" t="b">
+      <c r="L49" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>258</v>
       </c>
@@ -15850,31 +15997,34 @@
         <v>259</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K50" s="2" t="b">
+      <c r="L50" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>258</v>
       </c>
@@ -15885,31 +16035,34 @@
         <v>259</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="K51" s="2" t="b">
+      <c r="L51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>258</v>
       </c>
@@ -15920,31 +16073,34 @@
         <v>259</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="K52" s="2" t="b">
+      <c r="L52" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>258</v>
       </c>
@@ -15955,31 +16111,34 @@
         <v>259</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="K53" s="2" t="b">
+      <c r="L53" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>258</v>
       </c>
@@ -15990,31 +16149,34 @@
         <v>259</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="K54" s="2" t="b">
+      <c r="L54" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>258</v>
       </c>
@@ -16025,31 +16187,34 @@
         <v>259</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="K55" s="2" t="b">
+      <c r="L55" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>258</v>
       </c>
@@ -16060,31 +16225,34 @@
         <v>259</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="K56" s="2" t="b">
+      <c r="L56" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>267</v>
       </c>
@@ -16095,31 +16263,34 @@
         <v>268</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K57" s="2" t="b">
+      <c r="L57" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>267</v>
       </c>
@@ -16130,31 +16301,34 @@
         <v>268</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="K58" s="2" t="b">
+      <c r="L58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>267</v>
       </c>
@@ -16165,31 +16339,34 @@
         <v>268</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="K59" s="2" t="b">
+      <c r="L59" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>267</v>
       </c>
@@ -16200,31 +16377,34 @@
         <v>268</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="K60" s="2" t="b">
+      <c r="L60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>267</v>
       </c>
@@ -16235,31 +16415,34 @@
         <v>268</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="K61" s="2" t="b">
+      <c r="L61" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>267</v>
       </c>
@@ -16270,31 +16453,34 @@
         <v>268</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="K62" s="2" t="b">
+      <c r="L62" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -16305,31 +16491,34 @@
         <v>146</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K63" s="2" t="b">
+      <c r="L63" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>145</v>
       </c>
@@ -16340,31 +16529,34 @@
         <v>146</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="K64" s="2" t="b">
+      <c r="L64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>153</v>
       </c>
@@ -16375,31 +16567,34 @@
         <v>154</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K65" s="2" t="b">
+      <c r="L65" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -16410,31 +16605,34 @@
         <v>154</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K66" s="2" t="b">
+      <c r="L66" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
@@ -16445,31 +16643,34 @@
         <v>162</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K67" s="2" t="b">
+      <c r="L67" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>161</v>
       </c>
@@ -16480,31 +16681,34 @@
         <v>162</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="K68" s="2" t="b">
+      <c r="L68" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>161</v>
       </c>
@@ -16515,31 +16719,34 @@
         <v>162</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="K69" s="2" t="b">
+      <c r="L69" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>161</v>
       </c>
@@ -16550,31 +16757,34 @@
         <v>162</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="K70" s="2" t="b">
+      <c r="L70" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>161</v>
       </c>
@@ -16585,31 +16795,34 @@
         <v>162</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="K71" s="2" t="b">
+      <c r="L71" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>161</v>
       </c>
@@ -16620,31 +16833,34 @@
         <v>162</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="K72" s="2" t="b">
+      <c r="L72" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>161</v>
       </c>
@@ -16655,31 +16871,34 @@
         <v>162</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="K73" s="2" t="b">
+      <c r="L73" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
@@ -16690,31 +16909,34 @@
         <v>162</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K74" s="2" t="b">
+      <c r="L74" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>161</v>
       </c>
@@ -16725,31 +16947,34 @@
         <v>162</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K75" s="2" t="b">
+      <c r="L75" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>161</v>
       </c>
@@ -16760,31 +16985,34 @@
         <v>162</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="K76" s="2" t="b">
+      <c r="L76" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>161</v>
       </c>
@@ -16795,31 +17023,34 @@
         <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="K77" s="2" t="b">
+      <c r="L77" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>161</v>
       </c>
@@ -16830,31 +17061,34 @@
         <v>162</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="K78" s="2" t="b">
+      <c r="L78" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>161</v>
       </c>
@@ -16865,31 +17099,34 @@
         <v>162</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="K79" s="2" t="b">
+      <c r="L79" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>161</v>
       </c>
@@ -16900,31 +17137,34 @@
         <v>162</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="K80" s="2" t="b">
+      <c r="L80" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -16935,31 +17175,34 @@
         <v>162</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="K81" s="2" t="b">
+      <c r="L81" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>161</v>
       </c>
@@ -16970,31 +17213,34 @@
         <v>162</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="K82" s="2" t="b">
+      <c r="L82" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>169</v>
       </c>
@@ -17005,31 +17251,34 @@
         <v>170</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K83" s="2" t="b">
+      <c r="L83" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>169</v>
       </c>
@@ -17040,31 +17289,34 @@
         <v>170</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K84" s="2" t="b">
+      <c r="L84" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>177</v>
       </c>
@@ -17075,31 +17327,34 @@
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="K85" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K85" s="2" t="b">
+      <c r="L85" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>177</v>
       </c>
@@ -17110,31 +17365,34 @@
         <v>178</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="K86" s="2" t="b">
+      <c r="L86" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>177</v>
       </c>
@@ -17145,31 +17403,34 @@
         <v>178</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K87" s="2" t="b">
+      <c r="L87" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>177</v>
       </c>
@@ -17180,31 +17441,34 @@
         <v>178</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="K88" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="K88" s="2" t="b">
+      <c r="L88" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
@@ -17215,31 +17479,34 @@
         <v>178</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="K89" s="2" t="b">
+      <c r="L89" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>177</v>
       </c>
@@ -17250,31 +17517,34 @@
         <v>178</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="K90" s="2" t="b">
+      <c r="L90" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>177</v>
       </c>
@@ -17285,31 +17555,34 @@
         <v>178</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="K91" s="2" t="b">
+      <c r="L91" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>177</v>
       </c>
@@ -17320,31 +17593,34 @@
         <v>178</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="K92" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="K92" s="2" t="b">
+      <c r="L92" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>177</v>
       </c>
@@ -17355,31 +17631,34 @@
         <v>178</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="K93" s="2" t="b">
+      <c r="L93" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
@@ -17390,31 +17669,34 @@
         <v>187</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K94" s="2" t="b">
+      <c r="L94" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>186</v>
       </c>
@@ -17425,31 +17707,34 @@
         <v>187</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="K95" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K95" s="2" t="b">
+      <c r="L95" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>186</v>
       </c>
@@ -17460,31 +17745,34 @@
         <v>187</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="K96" s="2" t="b">
+      <c r="L96" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>194</v>
       </c>
@@ -17495,31 +17783,34 @@
         <v>195</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K97" s="2" t="b">
+      <c r="L97" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
@@ -17530,31 +17821,34 @@
         <v>195</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="K98" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K98" s="2" t="b">
+      <c r="L98" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>194</v>
       </c>
@@ -17565,31 +17859,34 @@
         <v>195</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="J99" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="K99" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="K99" s="2" t="b">
+      <c r="L99" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>194</v>
       </c>
@@ -17600,31 +17897,34 @@
         <v>195</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="K100" s="2" t="b">
+      <c r="L100" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>194</v>
       </c>
@@ -17635,31 +17935,34 @@
         <v>195</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="K101" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="K101" s="2" t="b">
+      <c r="L101" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>194</v>
       </c>
@@ -17670,31 +17973,34 @@
         <v>195</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="K102" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="K102" s="2" t="b">
+      <c r="L102" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>194</v>
       </c>
@@ -17705,31 +18011,34 @@
         <v>195</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="K103" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="K103" s="2" t="b">
+      <c r="L103" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>194</v>
       </c>
@@ -17740,31 +18049,34 @@
         <v>195</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="K104" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="K104" s="2" t="b">
+      <c r="L104" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>202</v>
       </c>
@@ -17772,31 +18084,34 @@
         <v>888</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K105" s="2" t="b">
+      <c r="L105" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>202</v>
       </c>
@@ -17804,31 +18119,34 @@
         <v>888</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="K106" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K106" s="2" t="b">
+      <c r="L106" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>209</v>
       </c>
@@ -17839,31 +18157,34 @@
         <v>210</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K107" s="2" t="b">
+      <c r="L107" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>209</v>
       </c>
@@ -17874,31 +18195,34 @@
         <v>210</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="K108" s="2" t="b">
+      <c r="L108" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>209</v>
       </c>
@@ -17909,31 +18233,34 @@
         <v>210</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="K109" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="K109" s="2" t="b">
+      <c r="L109" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>209</v>
       </c>
@@ -17944,31 +18271,34 @@
         <v>210</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="K110" s="2" t="b">
+      <c r="L110" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>217</v>
       </c>
@@ -17979,31 +18309,34 @@
         <v>218</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K111" s="2" t="b">
+      <c r="L111" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>217</v>
       </c>
@@ -18014,31 +18347,34 @@
         <v>218</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="K112" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="K112" s="2" t="b">
+      <c r="L112" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>217</v>
       </c>
@@ -18049,31 +18385,34 @@
         <v>218</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="K113" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="K113" s="2" t="b">
+      <c r="L113" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>217</v>
       </c>
@@ -18084,31 +18423,34 @@
         <v>218</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="K114" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="K114" s="2" t="b">
+      <c r="L114" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>217</v>
       </c>
@@ -18119,31 +18461,34 @@
         <v>218</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="J115" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="K115" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="K115" s="2" t="b">
+      <c r="L115" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>217</v>
       </c>
@@ -18154,31 +18499,34 @@
         <v>218</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="K116" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="K116" s="2" t="b">
+      <c r="L116" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>217</v>
       </c>
@@ -18189,31 +18537,34 @@
         <v>218</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="K117" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="K117" s="2" t="b">
+      <c r="L117" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>217</v>
       </c>
@@ -18224,31 +18575,34 @@
         <v>218</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="K118" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K118" s="2" t="b">
+      <c r="L118" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>217</v>
       </c>
@@ -18259,31 +18613,34 @@
         <v>218</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="K119" s="2" t="b">
+      <c r="L119" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>217</v>
       </c>
@@ -18294,31 +18651,34 @@
         <v>218</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="K120" s="2" t="b">
+      <c r="L120" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>217</v>
       </c>
@@ -18329,31 +18689,34 @@
         <v>218</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="K121" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="K121" s="2" t="b">
+      <c r="L121" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>217</v>
       </c>
@@ -18364,31 +18727,34 @@
         <v>218</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="K122" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="K122" s="2" t="b">
+      <c r="L122" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>217</v>
       </c>
@@ -18399,31 +18765,34 @@
         <v>218</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="J123" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="K123" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="K123" s="2" t="b">
+      <c r="L123" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>217</v>
       </c>
@@ -18434,31 +18803,34 @@
         <v>218</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="J124" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="K124" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="K124" s="2" t="b">
+      <c r="L124" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>393</v>
       </c>
@@ -18469,31 +18841,34 @@
         <v>394</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="J125" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="K125" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="K125" s="2" t="b">
+      <c r="L125" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>393</v>
       </c>
@@ -18504,31 +18879,34 @@
         <v>394</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="K126" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="K126" s="2" t="b">
+      <c r="L126" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>393</v>
       </c>
@@ -18539,31 +18917,34 @@
         <v>394</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="K127" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="K127" s="2" t="b">
+      <c r="L127" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>225</v>
       </c>
@@ -18574,31 +18955,34 @@
         <v>226</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="J128" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="K128" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K128" s="2" t="b">
+      <c r="L128" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>225</v>
       </c>
@@ -18609,31 +18993,34 @@
         <v>226</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="J129" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="K129" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="K129" s="2" t="b">
+      <c r="L129" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>233</v>
       </c>
@@ -18644,31 +19031,34 @@
         <v>234</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="J130" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="K130" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K130" s="2" t="b">
+      <c r="L130" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>233</v>
       </c>
@@ -18679,31 +19069,34 @@
         <v>234</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="J131" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="K131" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K131" s="2" t="b">
+      <c r="L131" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>241</v>
       </c>
@@ -18714,31 +19107,34 @@
         <v>242</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="J132" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="K132" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K132" s="2" t="b">
+      <c r="L132" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>241</v>
       </c>
@@ -18749,31 +19145,34 @@
         <v>242</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="K133" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="K133" s="2" t="b">
+      <c r="L133" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>241</v>
       </c>
@@ -18784,31 +19183,34 @@
         <v>242</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="J134" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="K134" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="K134" s="2" t="b">
+      <c r="L134" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>250</v>
       </c>
@@ -18819,31 +19221,34 @@
         <v>251</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="J135" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="K135" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K135" s="2" t="b">
+      <c r="L135" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>250</v>
       </c>
@@ -18854,40 +19259,46 @@
         <v>251</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J136" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="K136" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K136" s="2" t="b">
+      <c r="L136" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K136" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K136">
+  <autoFilter ref="A1:L136" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L136">
       <sortCondition ref="C1:C136"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{31AF5A07-7F57-0744-8F55-9AF473DFE717}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{D4433DE0-725E-424A-B04B-1080F4727296}"/>
-    <hyperlink ref="E16" r:id="rId3" xr:uid="{28388618-4F8E-EA4E-8448-13C9F413CD89}"/>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{31AF5A07-7F57-0744-8F55-9AF473DFE717}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{D4433DE0-725E-424A-B04B-1080F4727296}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{28388618-4F8E-EA4E-8448-13C9F413CD89}"/>
+    <hyperlink ref="F117" r:id="rId4" xr:uid="{B473B8B3-5FE1-D14E-A6CF-EEC0C2B59311}"/>
+    <hyperlink ref="F107" r:id="rId5" xr:uid="{8EADA28E-9CAF-5F42-8C2D-F37E9AFE4034}"/>
+    <hyperlink ref="F136" r:id="rId6" xr:uid="{82B652C1-E625-3B4B-A0B8-6A23F17ED18B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
